--- a/CNN Results.xlsx
+++ b/CNN Results.xlsx
@@ -1,25 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive - University of Bristol\Documents Year 4\Introduction to Artificial Intelligence\Group Project\ai-group-project-group-22\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71BB1EA-E3E2-47A9-A02B-6396228C060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CNN_V1" sheetId="1" r:id="rId1"/>
+    <sheet name="CNN_V2" sheetId="2" r:id="rId2"/>
+    <sheet name="CNN_V3" sheetId="5" r:id="rId3"/>
+    <sheet name="CNN_AlexNet" sheetId="3" r:id="rId4"/>
+    <sheet name="CNN_VGG19" sheetId="4" r:id="rId5"/>
+    <sheet name="CNN_V1 (Full DS)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
+  <si>
+    <t>No. of epochs</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Test Acc</t>
+  </si>
+  <si>
+    <t>Test Loss</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>0.8595752120018005, 0.6129999756813049</t>
+  </si>
+  <si>
+    <t>0.5439987182617188, 0.7286666631698608</t>
+  </si>
+  <si>
+    <t>1.0789613723754883, 0.6000000238418579</t>
+  </si>
+  <si>
+    <t>0.6549054980278015, 0.7253333330154419</t>
+  </si>
+  <si>
+    <t>0.5359770059585571, 0.734666645526886</t>
+  </si>
+  <si>
+    <t>0.6724358201026917, 0.6010000109672546</t>
+  </si>
+  <si>
+    <t>ADDED A 2048 DENSE LAYER FOR THESE RESULTS</t>
+  </si>
+  <si>
+    <t>1.2237358093261719, 0.6526666879653931</t>
+  </si>
+  <si>
+    <t>0.5448119044303894, 0.7296666502952576</t>
+  </si>
+  <si>
+    <t>0.6730805039405823, 0.6010000109672546</t>
+  </si>
+  <si>
+    <t>0.588167667388916, 0.699999988079071</t>
+  </si>
+  <si>
+    <t>0.5559128522872925, 0.722000002861023</t>
+  </si>
+  <si>
+    <t>0.6732896566390991, 0.6010000109672546</t>
+  </si>
+  <si>
+    <t>0.6835581064224243, 0.7383333444595337</t>
+  </si>
+  <si>
+    <t>0.5330920815467834, 0.7390000224113464</t>
+  </si>
+  <si>
+    <t>0.6726095080375671, 0.6010000109672546</t>
+  </si>
+  <si>
+    <t>0.6871153116226196, 0.7003333568572998</t>
+  </si>
+  <si>
+    <t>0.5401463508605957, 0.7310000061988831</t>
+  </si>
+  <si>
+    <t>0.6761868000030518, 0.6006666421890259</t>
+  </si>
+  <si>
+    <t>0.7709614038467407, 0.7206666469573975</t>
+  </si>
+  <si>
+    <t>0.5396385192871094, 0.7303333282470703</t>
+  </si>
+  <si>
+    <t>nan, 0.6019999980926514</t>
+  </si>
+  <si>
+    <t>0.5359861850738525, 0.746999979019165</t>
+  </si>
+  <si>
+    <t>0.5576072335243225, 0.7310000061988831</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +166,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +611,2044 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.58271777629852295</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.74166667461395197</v>
+      </c>
+      <c r="G2">
+        <f>((1-D2)+E2)/2</f>
+        <v>0.57947444915771451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.54719012975692705</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.76800000667571999</v>
+      </c>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.61040493845939647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.885531246662139</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.66666668653488104</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.39056771993637102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.51998329162597601</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.75633335113525302</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.61817502975463845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.69307267665863004</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.75066667795181197</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.52879700064659096</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.72992849349975497</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.691999971866607</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.48103573918342601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.81519645452499301</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.62733334302902199</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.40606844425201449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.94427126646041804</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.73533332347869795</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.39553102850913996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.66917330026626498</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.71133333444595304</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.52108001708984397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.8363245725631701</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.63433331251144398</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.10099563002586304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.6174943447112999</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.70633333921432495</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>4.4419497251512507E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.65414190292358398</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.71333330869674605</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.52959570288658098</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50986550-BE89-42AD-B73E-E1D40F5F4725}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.67400926351547197</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G2">
+        <f>((1-D2)+E2)/2</f>
+        <v>0.463495373725891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.52773290872573797</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.72733330726623502</v>
+      </c>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.59980019927024852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.63745564222335804</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.66833335161209095</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.51543885469436646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.67269003391265803</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.46415498852729797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.51585751771926802</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.77300000190734797</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.62857124209403992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.64828139543533303</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.64833331108093195</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.50002595782279946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.67301964759826605</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.46399018168449396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.60859596729278498</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.70700001716613703</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.54920202493667603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.61056691408157304</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.544716536998749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.67283755540847701</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.46408122777938848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.55588006973266602</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.78833335638046198</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.61622664332389798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.59095644950866699</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.68599998950958196</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.54752177000045754</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02691920-9ED5-4C12-80A7-1E97C4970A27}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2">
+        <f>((1-D2)+E2)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882F7251-D578-4FB1-8ED1-16B1CA464ED0}">
+  <dimension ref="A1:X36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.67308050394058205</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G2">
+        <f>((1-D2)+E2)/2</f>
+        <v>0.46395975351333596</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.58816766738891602</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.55591616034507751</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.55591285228729204</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.58304357528686546</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.67328965663909901</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.46385517716407748</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.68355810642242398</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.73833334445953303</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.52738761901855447</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.533092081546783</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.73900002241134599</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.60295397043228149</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.67260950803756703</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.46419525146484347</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.68711531162261896</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.70033335685729903</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.50660902261734009</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.54014635086059504</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.73100000619888295</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.5954268276691439</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.67618680000305098</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.60066664218902499</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.46223992109298701</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.77096140384673995</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.72066664695739702</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.47485262155532854</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.53963851928710904</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.73033332824706998</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.59534740447998047</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X14" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.68149733543395996</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G25">
+        <f>((1-D25)+E25)/2</f>
+        <v>0.45975133776664701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.78255963325500399</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="G26">
+        <f>((1-D26)+E26)/2</f>
+        <v>0.42922016978263899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.58389610052108698</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.69900000095367398</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G36" si="1">((1-D27)+E27)/2</f>
+        <v>0.55755195021629356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.67273199558258001</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.46413400769233698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.85957521200179998</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.61299997568130404</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.37671238183975203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.54399871826171797</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.72866666316985995</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.59233397245407104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1.0789613723754801</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.60000002384185702</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.26051932573318848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.65490549802780096</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.72533333301544101</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.53521391749381997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.53597700595855702</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.73466664552688599</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.59934481978416443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.67243582010269098</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.60100001096725397</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.46428209543228149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1.2237358093261701</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.65266668796539296</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.21446543931961143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.54481190443038896</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.72966665029525701</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.59242737293243408</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G25:G36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A251FFCD-CEE4-4267-8AED-96E59B462E33}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.60199999809265103</v>
+      </c>
+      <c r="G2" t="e">
+        <f>((1-D2)+E2)/2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.57720148563384999</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.75700002908706598</v>
+      </c>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.58989927172660805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.55704581737518299</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.716499984264373</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.579727083444595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.60199999809265103</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.53598618507385198</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.60550689697265647</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.55760723352432195</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.73100000619888295</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.5866963863372805</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41FE1DD-C5A7-41AF-A96A-6BCC2B361759}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="G2">
+        <f>((1-D2)+E2)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CNN Results.xlsx
+++ b/CNN Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive - University of Bristol\Documents Year 4\Introduction to Artificial Intelligence\Group Project\ai-group-project-group-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71BB1EA-E3E2-47A9-A02B-6396228C060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB82F2-D593-4ACB-B6DA-92AEB2CE6D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CNN_V1" sheetId="1" r:id="rId1"/>
-    <sheet name="CNN_V2" sheetId="2" r:id="rId2"/>
+    <sheet name="CNN_V2" sheetId="2" r:id="rId1"/>
+    <sheet name="CNN_V1" sheetId="1" r:id="rId2"/>
     <sheet name="CNN_V3" sheetId="5" r:id="rId3"/>
     <sheet name="CNN_AlexNet" sheetId="3" r:id="rId4"/>
     <sheet name="CNN_VGG19" sheetId="4" r:id="rId5"/>
@@ -611,11 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50986550-BE89-42AD-B73E-E1D40F5F4725}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -651,17 +651,17 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="6">
-        <v>0.58271777629852295</v>
+        <v>0.67400926351547197</v>
       </c>
       <c r="E2" s="7">
-        <v>0.74166667461395197</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G2">
         <f>((1-D2)+E2)/2</f>
-        <v>0.57947444915771451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.463495373725891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -672,17 +672,17 @@
         <v>1E-3</v>
       </c>
       <c r="D3" s="6">
-        <v>0.54719012975692705</v>
+        <v>0.52773290872573797</v>
       </c>
       <c r="E3" s="7">
-        <v>0.76800000667571999</v>
+        <v>0.72733330726623502</v>
       </c>
       <c r="G3">
         <f>((1-D3)+E3)/2</f>
-        <v>0.61040493845939647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.59980019927024852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -693,17 +693,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D4" s="6">
-        <v>0.885531246662139</v>
+        <v>0.63745564222335804</v>
       </c>
       <c r="E4" s="7">
-        <v>0.66666668653488104</v>
+        <v>0.66833335161209095</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
-        <v>0.39056771993637102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.51543885469436646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -714,17 +714,17 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="6">
-        <v>0.51998329162597601</v>
+        <v>0.67269003391265803</v>
       </c>
       <c r="E5" s="7">
-        <v>0.75633335113525302</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.61817502975463845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.46415498852729797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -735,18 +735,17 @@
         <v>1E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>0.69307267665863004</v>
+        <v>0.51585751771926802</v>
       </c>
       <c r="E6" s="5">
-        <v>0.75066667795181197</v>
+        <v>0.77300000190734797</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.52879700064659096</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.62857124209403992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -757,17 +756,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D7" s="6">
-        <v>0.72992849349975497</v>
+        <v>0.64828139543533303</v>
       </c>
       <c r="E7" s="7">
-        <v>0.691999971866607</v>
+        <v>0.64833331108093195</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.48103573918342601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.50002595782279946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -778,17 +777,17 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="6">
-        <v>0.81519645452499301</v>
+        <v>0.67301964759826605</v>
       </c>
       <c r="E8" s="7">
-        <v>0.62733334302902199</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.40606844425201449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.46399018168449396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -799,17 +798,17 @@
         <v>1E-3</v>
       </c>
       <c r="D9" s="6">
-        <v>0.94427126646041804</v>
+        <v>0.60859596729278498</v>
       </c>
       <c r="E9" s="7">
-        <v>0.73533332347869795</v>
+        <v>0.70700001716613703</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.39553102850913996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.54920202493667603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -820,17 +819,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D10" s="11">
-        <v>0.66917330026626498</v>
+        <v>0.61056691408157304</v>
       </c>
       <c r="E10" s="12">
-        <v>0.71133333444595304</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.52108001708984397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.544716536998749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -841,17 +840,17 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="11">
-        <v>1.8363245725631701</v>
+        <v>0.67283755540847701</v>
       </c>
       <c r="E11" s="12">
-        <v>0.63433331251144398</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-0.10099563002586304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.46408122777938848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -862,17 +861,17 @@
         <v>1E-3</v>
       </c>
       <c r="D12" s="11">
-        <v>1.6174943447112999</v>
+        <v>0.55588006973266602</v>
       </c>
       <c r="E12" s="12">
-        <v>0.70633333921432495</v>
+        <v>0.78833335638046198</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>4.4419497251512507E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.61622664332389798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -883,14 +882,14 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D13" s="8">
-        <v>0.65414190292358398</v>
+        <v>0.59095644950866699</v>
       </c>
       <c r="E13" s="9">
-        <v>0.71333330869674605</v>
+        <v>0.68599998950958196</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.52959570288658098</v>
+        <v>0.54752177000045754</v>
       </c>
     </row>
   </sheetData>
@@ -911,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50986550-BE89-42AD-B73E-E1D40F5F4725}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,7 +922,7 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -951,17 +950,17 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="6">
-        <v>0.67400926351547197</v>
+        <v>0.58271777629852295</v>
       </c>
       <c r="E2" s="7">
-        <v>0.60100001096725397</v>
+        <v>0.74166667461395197</v>
       </c>
       <c r="G2">
         <f>((1-D2)+E2)/2</f>
-        <v>0.463495373725891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.57947444915771451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -972,17 +971,17 @@
         <v>1E-3</v>
       </c>
       <c r="D3" s="6">
-        <v>0.52773290872573797</v>
+        <v>0.54719012975692705</v>
       </c>
       <c r="E3" s="7">
-        <v>0.72733330726623502</v>
+        <v>0.76800000667571999</v>
       </c>
       <c r="G3">
         <f>((1-D3)+E3)/2</f>
-        <v>0.59980019927024852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.61040493845939647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -993,17 +992,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D4" s="6">
-        <v>0.63745564222335804</v>
+        <v>0.885531246662139</v>
       </c>
       <c r="E4" s="7">
-        <v>0.66833335161209095</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
-        <v>0.51543885469436646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.39056771993637102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -1014,17 +1013,17 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="6">
-        <v>0.67269003391265803</v>
+        <v>0.51998329162597601</v>
       </c>
       <c r="E5" s="7">
-        <v>0.60100001096725397</v>
+        <v>0.75633335113525302</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.46415498852729797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.61817502975463845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -1035,17 +1034,18 @@
         <v>1E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>0.51585751771926802</v>
+        <v>0.69307267665863004</v>
       </c>
       <c r="E6" s="5">
-        <v>0.77300000190734797</v>
+        <v>0.75066667795181197</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.62857124209403992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.52879700064659096</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1056,17 +1056,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D7" s="6">
-        <v>0.64828139543533303</v>
+        <v>0.72992849349975497</v>
       </c>
       <c r="E7" s="7">
-        <v>0.64833331108093195</v>
+        <v>0.691999971866607</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.50002595782279946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.48103573918342601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -1077,17 +1077,17 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="6">
-        <v>0.67301964759826605</v>
+        <v>0.81519645452499301</v>
       </c>
       <c r="E8" s="7">
-        <v>0.60100001096725397</v>
+        <v>0.62733334302902199</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.46399018168449396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.40606844425201449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -1098,17 +1098,17 @@
         <v>1E-3</v>
       </c>
       <c r="D9" s="6">
-        <v>0.60859596729278498</v>
+        <v>0.94427126646041804</v>
       </c>
       <c r="E9" s="7">
-        <v>0.70700001716613703</v>
+        <v>0.73533332347869795</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.54920202493667603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.39553102850913996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -1119,17 +1119,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D10" s="11">
-        <v>0.61056691408157304</v>
+        <v>0.66917330026626498</v>
       </c>
       <c r="E10" s="12">
-        <v>0.69999998807907104</v>
+        <v>0.71133333444595304</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.544716536998749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.52108001708984397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -1140,17 +1140,17 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="11">
-        <v>0.67283755540847701</v>
+        <v>1.8363245725631701</v>
       </c>
       <c r="E11" s="12">
-        <v>0.60100001096725397</v>
+        <v>0.63433331251144398</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.46408122777938848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-0.10099563002586304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -1161,17 +1161,17 @@
         <v>1E-3</v>
       </c>
       <c r="D12" s="11">
-        <v>0.55588006973266602</v>
+        <v>1.6174943447112999</v>
       </c>
       <c r="E12" s="12">
-        <v>0.78833335638046198</v>
+        <v>0.70633333921432495</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.61622664332389798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.4419497251512507E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -1182,14 +1182,14 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D13" s="8">
-        <v>0.59095644950866699</v>
+        <v>0.65414190292358398</v>
       </c>
       <c r="E13" s="9">
-        <v>0.68599998950958196</v>
+        <v>0.71333330869674605</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.54752177000045754</v>
+        <v>0.52959570288658098</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02691920-9ED5-4C12-80A7-1E97C4970A27}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CNN Results.xlsx
+++ b/CNN Results.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive - University of Bristol\Documents Year 4\Introduction to Artificial Intelligence\Group Project\ai-group-project-group-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB82F2-D593-4ACB-B6DA-92AEB2CE6D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08857A3A-5DB8-4C45-B06C-B77FED4510C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CNN_V2" sheetId="2" r:id="rId1"/>
-    <sheet name="CNN_V1" sheetId="1" r:id="rId2"/>
+    <sheet name="CNN_V1" sheetId="1" r:id="rId1"/>
+    <sheet name="CNN_V2" sheetId="2" r:id="rId2"/>
     <sheet name="CNN_V3" sheetId="5" r:id="rId3"/>
-    <sheet name="CNN_AlexNet" sheetId="3" r:id="rId4"/>
-    <sheet name="CNN_VGG19" sheetId="4" r:id="rId5"/>
-    <sheet name="CNN_V1 (Full DS)" sheetId="6" r:id="rId6"/>
+    <sheet name="CNN_V4" sheetId="7" r:id="rId4"/>
+    <sheet name="CNN_V5" sheetId="8" r:id="rId5"/>
+    <sheet name="CNN_AlexNet" sheetId="3" r:id="rId6"/>
+    <sheet name="CNN_VGG19" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="48">
   <si>
     <t>No. of epochs</t>
   </si>
@@ -132,6 +134,57 @@
   </si>
   <si>
     <t>0.5576072335243225, 0.7310000061988831</t>
+  </si>
+  <si>
+    <t>train -</t>
+  </si>
+  <si>
+    <t>loss: 0.1203 - accuracy: 0.9568</t>
+  </si>
+  <si>
+    <t>loss: 0.2110 - accuracy: 0.9209</t>
+  </si>
+  <si>
+    <t>0.5543521046638489, 0.7303333282470703</t>
+  </si>
+  <si>
+    <t>0.5163580179214478, 0.7789999842643738</t>
+  </si>
+  <si>
+    <t>0.8393694758415222, 0.6850000023841858</t>
+  </si>
+  <si>
+    <t>0.5581340789794922, 0.7260000109672546</t>
+  </si>
+  <si>
+    <t>0.6755945682525635, 0.7289999723434448</t>
+  </si>
+  <si>
+    <t>0.8607890009880066, 0.7003333568572998</t>
+  </si>
+  <si>
+    <t>0.5029149055480957, 0.7706666588783264</t>
+  </si>
+  <si>
+    <t>1.4406319856643677, 0.6996666789054871</t>
+  </si>
+  <si>
+    <t>0.8418827056884766, 0.6943333148956299</t>
+  </si>
+  <si>
+    <t>103.81886291503906, 0.609000027179718</t>
+  </si>
+  <si>
+    <t>1.4839719533920288, 0.7120000123977661</t>
+  </si>
+  <si>
+    <t>0.7693051099777222, 0.699999988079071</t>
+  </si>
+  <si>
+    <t>0.6792328953742981, 0.6010000109672546</t>
+  </si>
+  <si>
+    <t>0.5478062629699707, 0.734333336353302</t>
   </si>
 </sst>
 </file>
@@ -611,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50986550-BE89-42AD-B73E-E1D40F5F4725}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +676,7 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -651,17 +704,17 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="6">
-        <v>0.67400926351547197</v>
+        <v>0.58271777629852295</v>
       </c>
       <c r="E2" s="7">
-        <v>0.60100001096725397</v>
+        <v>0.74166667461395197</v>
       </c>
       <c r="G2">
         <f>((1-D2)+E2)/2</f>
-        <v>0.463495373725891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.57947444915771451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -672,17 +725,17 @@
         <v>1E-3</v>
       </c>
       <c r="D3" s="6">
-        <v>0.52773290872573797</v>
+        <v>0.54719012975692705</v>
       </c>
       <c r="E3" s="7">
-        <v>0.72733330726623502</v>
+        <v>0.76800000667571999</v>
       </c>
       <c r="G3">
         <f>((1-D3)+E3)/2</f>
-        <v>0.59980019927024852</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.61040493845939647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -693,17 +746,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D4" s="6">
-        <v>0.63745564222335804</v>
+        <v>0.885531246662139</v>
       </c>
       <c r="E4" s="7">
-        <v>0.66833335161209095</v>
+        <v>0.66666668653488104</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
-        <v>0.51543885469436646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.39056771993637102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -714,17 +767,17 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="6">
-        <v>0.67269003391265803</v>
+        <v>0.51998329162597601</v>
       </c>
       <c r="E5" s="7">
-        <v>0.60100001096725397</v>
+        <v>0.75633335113525302</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.46415498852729797</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.61817502975463845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -735,17 +788,18 @@
         <v>1E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>0.51585751771926802</v>
+        <v>0.69307267665863004</v>
       </c>
       <c r="E6" s="5">
-        <v>0.77300000190734797</v>
+        <v>0.75066667795181197</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.62857124209403992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.52879700064659096</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -756,17 +810,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D7" s="6">
-        <v>0.64828139543533303</v>
+        <v>0.72992849349975497</v>
       </c>
       <c r="E7" s="7">
-        <v>0.64833331108093195</v>
+        <v>0.691999971866607</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.50002595782279946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.48103573918342601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -777,17 +831,17 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="6">
-        <v>0.67301964759826605</v>
+        <v>0.81519645452499301</v>
       </c>
       <c r="E8" s="7">
-        <v>0.60100001096725397</v>
+        <v>0.62733334302902199</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.46399018168449396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.40606844425201449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -798,17 +852,17 @@
         <v>1E-3</v>
       </c>
       <c r="D9" s="6">
-        <v>0.60859596729278498</v>
+        <v>0.94427126646041804</v>
       </c>
       <c r="E9" s="7">
-        <v>0.70700001716613703</v>
+        <v>0.73533332347869795</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.54920202493667603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.39553102850913996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -819,17 +873,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D10" s="11">
-        <v>0.61056691408157304</v>
+        <v>0.66917330026626498</v>
       </c>
       <c r="E10" s="12">
-        <v>0.69999998807907104</v>
+        <v>0.71133333444595304</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.544716536998749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.52108001708984397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -840,17 +894,17 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="11">
-        <v>0.67283755540847701</v>
+        <v>1.8363245725631701</v>
       </c>
       <c r="E11" s="12">
-        <v>0.60100001096725397</v>
+        <v>0.63433331251144398</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.46408122777938848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-0.10099563002586304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -861,17 +915,17 @@
         <v>1E-3</v>
       </c>
       <c r="D12" s="11">
-        <v>0.55588006973266602</v>
+        <v>1.6174943447112999</v>
       </c>
       <c r="E12" s="12">
-        <v>0.78833335638046198</v>
+        <v>0.70633333921432495</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.61622664332389798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.4419497251512507E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -882,14 +936,14 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D13" s="8">
-        <v>0.59095644950866699</v>
+        <v>0.65414190292358398</v>
       </c>
       <c r="E13" s="9">
-        <v>0.68599998950958196</v>
+        <v>0.71333330869674605</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.54752177000045754</v>
+        <v>0.52959570288658098</v>
       </c>
     </row>
   </sheetData>
@@ -910,8 +964,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50986550-BE89-42AD-B73E-E1D40F5F4725}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
@@ -922,7 +976,7 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -950,17 +1004,17 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="6">
-        <v>0.58271777629852295</v>
+        <v>0.67400926351547197</v>
       </c>
       <c r="E2" s="7">
-        <v>0.74166667461395197</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G2">
         <f>((1-D2)+E2)/2</f>
-        <v>0.57947444915771451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.463495373725891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -971,17 +1025,17 @@
         <v>1E-3</v>
       </c>
       <c r="D3" s="6">
-        <v>0.54719012975692705</v>
+        <v>0.52773290872573797</v>
       </c>
       <c r="E3" s="7">
-        <v>0.76800000667571999</v>
+        <v>0.72733330726623502</v>
       </c>
       <c r="G3">
         <f>((1-D3)+E3)/2</f>
-        <v>0.61040493845939647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.59980019927024852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -992,17 +1046,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D4" s="6">
-        <v>0.885531246662139</v>
+        <v>0.63745564222335804</v>
       </c>
       <c r="E4" s="7">
-        <v>0.66666668653488104</v>
+        <v>0.66833335161209095</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
-        <v>0.39056771993637102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.51543885469436646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -1013,17 +1067,17 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="6">
-        <v>0.51998329162597601</v>
+        <v>0.67269003391265803</v>
       </c>
       <c r="E5" s="7">
-        <v>0.75633335113525302</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.61817502975463845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.46415498852729797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -1034,18 +1088,17 @@
         <v>1E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>0.69307267665863004</v>
+        <v>0.51585751771926802</v>
       </c>
       <c r="E6" s="5">
-        <v>0.75066667795181197</v>
+        <v>0.77300000190734797</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.52879700064659096</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.62857124209403992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1056,17 +1109,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D7" s="6">
-        <v>0.72992849349975497</v>
+        <v>0.64828139543533303</v>
       </c>
       <c r="E7" s="7">
-        <v>0.691999971866607</v>
+        <v>0.64833331108093195</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.48103573918342601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.50002595782279946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -1077,17 +1130,17 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="6">
-        <v>0.81519645452499301</v>
+        <v>0.67301964759826605</v>
       </c>
       <c r="E8" s="7">
-        <v>0.62733334302902199</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.40606844425201449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.46399018168449396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>15</v>
       </c>
@@ -1098,17 +1151,17 @@
         <v>1E-3</v>
       </c>
       <c r="D9" s="6">
-        <v>0.94427126646041804</v>
+        <v>0.60859596729278498</v>
       </c>
       <c r="E9" s="7">
-        <v>0.73533332347869795</v>
+        <v>0.70700001716613703</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.39553102850913996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.54920202493667603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -1119,17 +1172,17 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D10" s="11">
-        <v>0.66917330026626498</v>
+        <v>0.61056691408157304</v>
       </c>
       <c r="E10" s="12">
-        <v>0.71133333444595304</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.52108001708984397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.544716536998749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -1140,17 +1193,17 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="11">
-        <v>1.8363245725631701</v>
+        <v>0.67283755540847701</v>
       </c>
       <c r="E11" s="12">
-        <v>0.63433331251144398</v>
+        <v>0.60100001096725397</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-0.10099563002586304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.46408122777938848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -1161,17 +1214,17 @@
         <v>1E-3</v>
       </c>
       <c r="D12" s="11">
-        <v>1.6174943447112999</v>
+        <v>0.55588006973266602</v>
       </c>
       <c r="E12" s="12">
-        <v>0.70633333921432495</v>
+        <v>0.78833335638046198</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>4.4419497251512507E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.61622664332389798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -1182,14 +1235,14 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D13" s="8">
-        <v>0.65414190292358398</v>
+        <v>0.59095644950866699</v>
       </c>
       <c r="E13" s="9">
-        <v>0.71333330869674605</v>
+        <v>0.68599998950958196</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.52959570288658098</v>
+        <v>0.54752177000045754</v>
       </c>
     </row>
   </sheetData>
@@ -1213,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02691920-9ED5-4C12-80A7-1E97C4970A27}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,11 +1302,15 @@
       <c r="C2" s="2">
         <v>0.1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="6">
+        <v>0.68287408351898105</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.63966667652130105</v>
+      </c>
       <c r="G2">
         <f>((1-D2)+E2)/2</f>
-        <v>0.5</v>
+        <v>0.47839629650116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1266,11 +1323,15 @@
       <c r="C3" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="6">
+        <v>0.59091293811798096</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.67900002002715998</v>
+      </c>
       <c r="G3">
         <f>((1-D3)+E3)/2</f>
-        <v>0.5</v>
+        <v>0.54404354095458951</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1283,11 +1344,15 @@
       <c r="C4" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6">
+        <v>0.96835774183273304</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.63800001144409102</v>
+      </c>
       <c r="G4">
         <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
-        <v>0.5</v>
+        <v>0.33482113480567899</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1300,11 +1365,15 @@
       <c r="C5" s="2">
         <v>0.1</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="6">
+        <v>0.69110417366027799</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.57899999618530196</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.44394791126251198</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1317,11 +1386,15 @@
       <c r="C6" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="4">
+        <v>0.71067172288894598</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.68433332443237305</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.48683080077171353</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1334,11 +1407,15 @@
       <c r="C7" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="6">
+        <v>0.97554612159729004</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.61000001430511397</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.31722694635391196</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1351,11 +1428,15 @@
       <c r="C8" s="2">
         <v>0.1</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="6">
+        <v>0.61083585023880005</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.65566664934158303</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.52241539955139149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1368,11 +1449,15 @@
       <c r="C9" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="6">
+        <v>0.488693207502365</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.77399998903274503</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.64265339076519001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1385,11 +1470,15 @@
       <c r="C10" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="11">
+        <v>1.0779294967651301</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.59333330392837502</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25770190358162248</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1402,11 +1491,15 @@
       <c r="C11" s="2">
         <v>0.1</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="11">
+        <v>145.21089172363199</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.60033333301544101</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-71.805279195308273</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1419,11 +1512,15 @@
       <c r="C12" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="11">
+        <v>0.70608836412429798</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.65100002288818304</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.47245582938194253</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1436,11 +1533,15 @@
       <c r="C13" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="8">
+        <v>1.20347440242767</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.60533332824706998</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.20092946290969999</v>
       </c>
     </row>
   </sheetData>
@@ -1461,6 +1562,646 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A815499-9BBD-41FA-96D5-22E794319397}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.31336116790771</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.59866666793823198</v>
+      </c>
+      <c r="G2">
+        <f>((1-D2)+E2)/2</f>
+        <v>0.14265275001526101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.66213005781173695</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.721000015735626</v>
+      </c>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.52943497896194458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.91696679592132502</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.70933336019515902</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.396183282136917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.1580165624618499</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.23199170827865756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.656391382217407</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.75099998712539595</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.54730430245399453</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.81923621892928999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.69566667079925504</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.43821522593498252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.71165627241134599</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.68699997663497903</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.48767185211181652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.8977812528610201</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.66366666555404596</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-0.11705729365348705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.639054715633392</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.72466665506362904</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.54280596971511852</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.0271964073181099</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.64033335447311401</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.30656847357750205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.3696923255920399</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.76200002431869496</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.19615384936332753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.60269349813461304</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.72399997711181596</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.56065323948860146</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13 G15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E994F8F3-6AC6-4D0A-A2A2-1F16C1525003}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.55435210466384799</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.73033332824706998</v>
+      </c>
+      <c r="G2">
+        <f>((1-D2)+E2)/2</f>
+        <v>0.58799061179161094</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.51635801792144698</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.778999984264373</v>
+      </c>
+      <c r="G3">
+        <f>((1-D3)+E3)/2</f>
+        <v>0.63132098317146301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.83936947584152199</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.68500000238418501</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
+        <v>0.42281526327133151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.55813407897949197</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.72600001096725397</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.583932965993881</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.67559456825256303</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.72899997234344405</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.52670270204544045</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.86078900098800604</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.70033335685729903</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.4197721779346465</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.50291490554809504</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.77066665887832597</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.63387587666511547</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.4406319856643599</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.69966667890548695</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.12951734662056352</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.84188270568847601</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.69433331489562899</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.42622530460357649</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>103.81886291503901</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.60900002717971802</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-51.104931443929644</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.4839719533920199</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.712000012397766</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.11401402950287304</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.76930510997772195</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.46534743905067455</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.4"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882F7251-D578-4FB1-8ED1-16B1CA464ED0}">
   <dimension ref="A1:X36"/>
   <sheetViews>
@@ -2115,12 +2856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A251FFCD-CEE4-4267-8AED-96E59B462E33}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,11 +3032,18 @@
       <c r="C8" s="2">
         <v>0.1</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.60199999809265103</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2308,11 +3056,16 @@
       <c r="C9" s="2">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6">
+        <v>0.67923289537429798</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.16038355231285101</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2330,6 +3083,9 @@
       <c r="G10">
         <f t="shared" si="0"/>
         <v>0.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2399,256 +3155,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41FE1DD-C5A7-41AF-A96A-6BCC2B361759}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2">
-        <f>((1-D2)+E2)/2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="G3">
-        <f>((1-D3)+E3)/2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="G4">
-        <f t="shared" ref="G4:G13" si="0">((1-D4)+E4)/2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.4"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="0.6"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>